--- a/MainTop/30.10.2025 Таня ВБ 2 месяца/7/объединенный_отчет_с_местом_sorted_colored.xlsx
+++ b/MainTop/30.10.2025 Таня ВБ 2 месяца/7/объединенный_отчет_с_местом_sorted_colored.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.10.2025 Таня ВБ 2 месяца\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\30.10.2025 Таня ВБ 2 месяца\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72FE570-254A-4F2B-8D7C-E04E56E28E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39544CD9-80BC-4654-BE08-8EFC29B263A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1181,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K244" sqref="K244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8969,7 +8980,42 @@
         <v>255</v>
       </c>
     </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <f>SUM(B2:B243)</f>
+        <v>31</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ref="C244:I244" si="0">SUM(C2:C243)</f>
+        <v>84</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>